--- a/public/shoes_user.xlsx
+++ b/public/shoes_user.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMSUNG\Desktop\Shoe-Shop\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021B8F2F-03CB-4932-8C53-23DC463013D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA61FA99-F680-4C29-91D2-072AA729B74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4068" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{AEC6FFF7-72C4-4C8D-9DB0-2EF49D09295C}"/>
+    <workbookView xWindow="7008" yWindow="5712" windowWidth="17280" windowHeight="8964" xr2:uid="{AEC6FFF7-72C4-4C8D-9DB0-2EF49D09295C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,10 +40,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -65,6 +61,10 @@
   </si>
   <si>
     <t>pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,53 +435,44 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>3</v>
-      </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/public/shoes_user.xlsx
+++ b/public/shoes_user.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMSUNG\Desktop\Shoe-Shop\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bk/vscode/Shoe-Shop-Backend/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA61FA99-F680-4C29-91D2-072AA729B74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5995E92B-A214-7C45-8B2C-329FFE10BABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7008" yWindow="5712" windowWidth="17280" windowHeight="8964" xr2:uid="{AEC6FFF7-72C4-4C8D-9DB0-2EF49D09295C}"/>
+    <workbookView xWindow="8100" yWindow="4540" windowWidth="17280" windowHeight="8960" xr2:uid="{AEC6FFF7-72C4-4C8D-9DB0-2EF49D09295C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,33 +36,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bokyeom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>doraemon49</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>haejun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3c252b30-4bb2-40cb-90af-e4d752b1c9af</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04a97c72-6db0-4ff8-9145-3a8481393a71</t>
+  </si>
+  <si>
+    <t>46eeab8f-d24c-440f-9199-709e95fa573f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>km</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kbk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$2b$08$UufMZf51ZF8ZfPiWCV.tmeoQgTXzcu14uymyv3XEhWwObwcixjFI6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -72,7 +81,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,77 +444,62 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="38.5" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="69.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="C2:C4" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA721FC-FC37-445B-9410-45A0AA6A50A0}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{773C56F7-A1FA-416C-AF86-02C37049BCFB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>